--- a/测试配置档.xlsx
+++ b/测试配置档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE57EA-542F-45D6-A102-11F8253B4853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E81059-BB7E-4B16-A9E3-71ECB92028F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,12 @@
   <si>
     <t>名称测试2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数-3</t>
+  </si>
+  <si>
+    <t>参数-4</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,7 +448,7 @@
     <col min="3" max="4" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +461,14 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -469,8 +481,14 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -483,8 +501,14 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -497,8 +521,14 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -510,6 +540,12 @@
       </c>
       <c r="D5" s="3">
         <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/测试配置档.xlsx
+++ b/测试配置档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE57EA-542F-45D6-A102-11F8253B4853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A439CD-80C1-45ED-8387-70BF186284A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,21 @@
   <si>
     <t>名称测试2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称测试3</t>
+  </si>
+  <si>
+    <t>名称测试4</t>
+  </si>
+  <si>
+    <t>名称测试5</t>
+  </si>
+  <si>
+    <t>名称测试6</t>
+  </si>
+  <si>
+    <t>名称测试7</t>
   </si>
 </sst>
 </file>
@@ -429,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,6 +527,76 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试配置档.xlsx
+++ b/测试配置档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E81059-BB7E-4B16-A9E3-71ECB92028F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D6296D-2AB1-4EAA-B9C1-3251B8526CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>参数-4</t>
+  </si>
+  <si>
+    <t>名称测试3</t>
+  </si>
+  <si>
+    <t>名称测试4</t>
+  </si>
+  <si>
+    <t>名称测试5</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,6 +557,66 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试配置档.xlsx
+++ b/测试配置档.xlsx
@@ -1,24 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49AC54-5C7B-44A4-ADBC-ACB1881A5BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>参数-1</t>
+  </si>
+  <si>
+    <t>参数-2</t>
+  </si>
+  <si>
+    <t>参数-3</t>
+  </si>
+  <si>
+    <t>参数-4</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>[uint32]</t>
+  </si>
+  <si>
+    <t>名称测试1</t>
+  </si>
+  <si>
+    <t>名称测试2</t>
+  </si>
+  <si>
+    <t>名称测试3</t>
+  </si>
+  <si>
+    <t>名称测试4</t>
+  </si>
+  <si>
+    <t>名称测试5</t>
+  </si>
+  <si>
+    <t>名称测试6</t>
+  </si>
+  <si>
+    <t>名称测试7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,10 +120,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,78 +456,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>名称</v>
-      </c>
-      <c r="C1" t="str">
-        <v>参数-1</v>
-      </c>
-      <c r="D1" t="str">
-        <v>参数-2</v>
-      </c>
-      <c r="E1" t="str">
-        <v>参数-3</v>
-      </c>
-      <c r="F1" t="str">
-        <v>参数-4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Params</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Params</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Params</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Params</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>uint32</v>
-      </c>
-      <c r="B3" t="str">
-        <v>string</v>
-      </c>
-      <c r="C3" t="str">
-        <v>[uint32]</v>
-      </c>
-      <c r="D3" t="str">
-        <v>[uint32]</v>
-      </c>
-      <c r="E3" t="str">
-        <v>[uint32]</v>
-      </c>
-      <c r="F3" t="str">
-        <v>[uint32]</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="str">
-        <v>名称测试1</v>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -460,12 +545,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="str">
-        <v>名称测试2</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -480,12 +565,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="str">
-        <v>名称测试3</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -493,19 +578,19 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="str">
-        <v>名称测试4</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -513,19 +598,19 @@
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="str">
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="str">
-        <v>名称测试5</v>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -533,19 +618,19 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="str">
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="str">
-        <v>名称测试6</v>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -553,19 +638,19 @@
       <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" t="str">
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="str">
-        <v>名称测试7</v>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -573,16 +658,18 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <v/>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
+    <ignoredError sqref="A1:F5 A6:D10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/测试配置档.xlsx
+++ b/测试配置档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49AC54-5C7B-44A4-ADBC-ACB1881A5BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDCFF8D-0E05-4FC8-859D-0AC087BFDFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,12 +460,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -536,16 +536,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -605,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -625,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -645,7 +645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -669,7 +669,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F5 A6:D10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F3 A6:D10 A5:F5 A4:C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/测试配置档.xlsx
+++ b/测试配置档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\mergeExcelTest\test_merge_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49AC54-5C7B-44A4-ADBC-ACB1881A5BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D4D92-FA14-4CAB-A7CB-6BB369EB9B67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,12 +460,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -605,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -625,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -633,19 +633,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -669,7 +669,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F5 A6:D10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F5 A6:D8 A10:D10 A9:B9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>